--- a/doc/Gerenciamento de Cronograma/Cronograma Sprint 3.xlsx
+++ b/doc/Gerenciamento de Cronograma/Cronograma Sprint 3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD499DB-FD3C-4C18-80D9-5D2E2F26E11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EA0EE4-3B67-4593-B399-74F4F19A6EBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>DONE</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>End Date</t>
+  </si>
+  <si>
+    <t>2h 40m</t>
+  </si>
+  <si>
+    <t>20m</t>
   </si>
 </sst>
 </file>
@@ -115,7 +121,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,30 +612,30 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="60.6" customHeight="1"/>
+    <row r="2" spans="1:5" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16.149999999999999" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -644,13 +650,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D5" s="12">
         <v>44860</v>
@@ -659,7 +665,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -674,13 +680,13 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D7" s="12">
         <v>44859</v>
@@ -689,7 +695,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -704,7 +710,7 @@
         <v>44865</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -719,13 +725,13 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D10" s="12">
         <v>44866</v>
@@ -734,7 +740,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -749,7 +755,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
@@ -764,7 +770,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>17</v>
@@ -779,7 +785,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>19</v>
@@ -794,7 +800,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>21</v>
@@ -809,7 +815,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>22</v>
@@ -824,19 +830,19 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="9" customFormat="1" ht="15.75">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="7"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.149999999999999" customHeight="1">
       <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
@@ -851,7 +857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>25</v>
@@ -866,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>26</v>
@@ -881,15 +887,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.75">
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="12">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="13"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="E25" s="13"/>
     </row>
   </sheetData>
